--- a/WellBeing/src/test/resources/testdata.xlsx
+++ b/WellBeing/src/test/resources/testdata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\WellBeing\Repo\NewRepo\WellBeing\WellBeing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFE53C-49AC-440D-B49B-8B787621715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E846D7-1053-42FC-8A1C-8B3D57CCC90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId2"/>
     <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
     <sheet name="WellBeing" sheetId="4" r:id="rId4"/>
+    <sheet name="Patient Registration" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>Sl.no</t>
   </si>
@@ -273,6 +274,42 @@
   </si>
   <si>
     <t>HSG SCAN</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>TestCase Name</t>
+  </si>
+  <si>
+    <t>Patient Registration</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Patient 1</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -302,7 +339,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -384,6 +427,22 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B611FC1D-B520-4596-8BB5-2D06FD3B30B0}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
@@ -1600,4 +1659,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F70D-27F8-4784-A12A-BFB3CBC8F4CD}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="15">
+        <v>987458758</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WellBeing/src/test/resources/testdata.xlsx
+++ b/WellBeing/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\WellBeing\Repo\NewRepo\WellBeing\WellBeing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E846D7-1053-42FC-8A1C-8B3D57CCC90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B8FAF-953A-4B64-AF0F-80FA077C9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>Sl.no</t>
   </si>
@@ -303,13 +303,16 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Patient 1</t>
-  </si>
-  <si>
     <t>Test1</t>
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Patient1</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +352,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +416,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -428,21 +435,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,13 +779,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,10 +795,10 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -816,8 +813,8 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,10 +861,10 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -888,8 +885,8 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1663,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F70D-27F8-4784-A12A-BFB3CBC8F4CD}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,69 +1672,77 @@
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="H3" s="15">
+        <v>31222</v>
+      </c>
+      <c r="I3" s="12">
         <v>987458758</v>
       </c>
     </row>
@@ -1746,7 +1751,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WellBeing/src/test/resources/testdata.xlsx
+++ b/WellBeing/src/test/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\WellBeing\Repo\NewRepo\WellBeing\WellBeing\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\OneDrive\Desktop\Smiles\Repo\WellBeing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B8FAF-953A-4B64-AF0F-80FA077C9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A071CAA8-841C-44F9-9E42-5E6952EB5C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -426,6 +426,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -439,6 +442,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,31 +767,31 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -794,11 +800,11 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -812,9 +818,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,7 +832,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -840,7 +846,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -850,7 +856,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -860,11 +866,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -884,9 +890,9 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
@@ -904,7 +910,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -924,7 +930,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -934,7 +940,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -944,7 +950,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -954,7 +960,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -970,7 +976,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1004,12 +1010,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1027,22 +1033,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
@@ -1146,508 +1152,508 @@
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>69</v>
       </c>
@@ -1663,47 +1669,46 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="14" t="s">
         <v>77</v>
       </c>
@@ -1723,10 +1728,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="12" t="s">
         <v>82</v>
       </c>
@@ -1747,11 +1752,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="D1:I1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WellBeing/src/test/resources/testdata.xlsx
+++ b/WellBeing/src/test/resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\WellBeing\Repo\NewRepo\WellBeing\WellBeing\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B8FAF-953A-4B64-AF0F-80FA077C9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB2F75-BD51-477B-86E8-47DAC0EB1FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
   </bookViews>
@@ -297,22 +297,22 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
     <t>Mobile</t>
   </si>
   <si>
     <t>Mr</t>
   </si>
   <si>
+    <t>Patient1</t>
+  </si>
+  <si>
     <t>Test1</t>
   </si>
   <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>Patient1</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -416,16 +416,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -436,9 +432,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,13 +784,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,10 +800,10 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -813,8 +818,8 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,10 +866,10 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -885,8 +890,8 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1659,99 +1664,95 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213F70D-27F8-4784-A12A-BFB3CBC8F4CD}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70178D9-3E0E-4071-9F16-EE83486550A8}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="17.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="13"/>
+    <col min="5" max="5" width="9.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="12.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="13" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="G3" s="21">
         <v>31222</v>
       </c>
-      <c r="I3" s="12">
+      <c r="H3" s="20">
         <v>987458758</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D1:I1"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WellBeing/src/test/resources/testdata.xlsx
+++ b/WellBeing/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\WellBeing\Repo\NewRepo\WellBeing\WellBeing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A67C473-EF0C-412F-8F91-222C3B2891F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4D3B2-3660-4A15-9589-5A01533D380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
   </bookViews>
@@ -303,12 +303,6 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Patient1</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>987458758568</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1674,17 +1674,18 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="14"/>
     <col min="2" max="2" width="21.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="14"/>
+    <col min="3" max="3" width="8.88671875" style="14"/>
+    <col min="4" max="4" width="9.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="14"/>
-    <col min="7" max="7" width="12.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="14" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="14"/>
   </cols>
@@ -1713,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>76</v>
@@ -1741,19 +1742,19 @@
         <v>82</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="G3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/WellBeing/src/test/resources/testdata.xlsx
+++ b/WellBeing/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\WellBeing\Repo\NewRepo\WellBeing\WellBeing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4D3B2-3660-4A15-9589-5A01533D380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ADFF87-07C1-4ECC-96F9-B4F0DA1F703B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
+    <workbookView xWindow="12732" yWindow="3360" windowWidth="10308" windowHeight="8880" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,10 +315,10 @@
     <t>987458758568</t>
   </si>
   <si>
-    <t>Patient</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Patient_</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,7 +1682,7 @@
     <col min="1" max="1" width="8.88671875" style="14"/>
     <col min="2" max="2" width="21.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="14"/>
-    <col min="4" max="4" width="9.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="14"/>
     <col min="7" max="7" width="16.21875" style="14" customWidth="1"/>
@@ -1742,10 +1742,10 @@
         <v>82</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>83</v>

--- a/WellBeing/src/test/resources/testdata.xlsx
+++ b/WellBeing/src/test/resources/testdata.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\WellBeing\Repo\NewRepo\WellBeing\WellBeing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ADFF87-07C1-4ECC-96F9-B4F0DA1F703B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D7AE3D-9AA0-4690-83C9-9B901A6CE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12732" yWindow="3360" windowWidth="10308" windowHeight="8880" activeTab="4" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0F1F2984-6E4D-49EC-8AFC-12D766306736}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId2"/>
     <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
-    <sheet name="WellBeing" sheetId="4" r:id="rId4"/>
+    <sheet name="Service List" sheetId="4" r:id="rId4"/>
     <sheet name="Patient Registration" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>Sl.no</t>
   </si>
@@ -320,12 +320,15 @@
   <si>
     <t>Patient_</t>
   </si>
+  <si>
+    <t>Services</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +349,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -389,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -451,6 +461,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B611FC1D-B520-4596-8BB5-2D06FD3B30B0}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,502 +1177,507 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>54</v>
+      <c r="A1" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1673,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70178D9-3E0E-4071-9F16-EE83486550A8}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
